--- a/实验进展/甘特图.xlsx
+++ b/实验进展/甘特图.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8F7FC3-51FD-4728-BE91-BE1B753F59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7E5E23-1B1D-412A-84F4-B47CA20B7B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="16" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>公司名称</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>责任人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘喜</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -836,15 +840,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -855,6 +850,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="47" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1731,27 +1735,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
@@ -1878,26 +1882,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="22"/>
       <c r="X4" s="67" t="s">
         <v>15</v>
@@ -3226,7 +3230,7 @@
       <c r="E13" s="52"/>
       <c r="F13" s="53">
         <f ca="1">TODAY()+5</f>
-        <v>45409</v>
+        <v>45416</v>
       </c>
       <c r="G13" s="54">
         <v>1</v>
@@ -4199,11 +4203,21 @@
       <c r="B17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
+      <c r="C17" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="53">
+        <v>45383</v>
+      </c>
+      <c r="G17" s="54">
+        <v>30</v>
+      </c>
       <c r="H17" s="55"/>
       <c r="I17" s="56" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4437,11 +4451,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="51"/>
+        <v>21</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="52">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F18" s="53">
         <f>F12+6</f>
@@ -4685,9 +4701,11 @@
       <c r="C19" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="52">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F19" s="53">
         <f>F18+2</f>
@@ -9022,23 +9040,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9336,22 +9343,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD6AD73-D703-40CF-AB8D-72E6A3921BEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9378,9 +9392,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD6AD73-D703-40CF-AB8D-72E6A3921BEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>